--- a/wordpress/wp-content/uploads/mixfs-specific/2007.xlsx
+++ b/wordpress/wp-content/uploads/mixfs-specific/2007.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>品名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,31 +29,6 @@
   <si>
     <t>金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>K</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>LF-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>YL334白</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KLF-YL308B白</t>
   </si>
   <si>
     <t>501</t>
@@ -111,15 +86,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -411,10 +383,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -436,46 +408,24 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>52.631578947368425</v>
+        <v>33.299999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>12.345000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>33.299999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2">
-        <v>6</v>
-      </c>
-      <c r="C5">
         <v>11</v>
       </c>
     </row>
